--- a/Brothers_AMS/TemplateFiles/PageAccessTemplate.xlsx
+++ b/Brothers_AMS/TemplateFiles/PageAccessTemplate.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Employee</t>
   </si>
@@ -43,9 +43,6 @@
   </si>
   <si>
     <t>Application Forms</t>
-  </si>
-  <si>
-    <t>Forecast</t>
   </si>
   <si>
     <t>Please Choose
@@ -83,21 +80,6 @@
     <t>DTRCorrectionRequest</t>
   </si>
   <si>
-    <t>OTSummary</t>
-  </si>
-  <si>
-    <t>ChangeScheduleSummary</t>
-  </si>
-  <si>
-    <t>DTRSummary</t>
-  </si>
-  <si>
-    <t>ManPowerSkills</t>
-  </si>
-  <si>
-    <t>WorkTimeSummary</t>
-  </si>
-  <si>
     <t>SectionApprover</t>
   </si>
   <si>
@@ -107,7 +89,16 @@
     <t>EmployeeName</t>
   </si>
   <si>
-    <t>ForecastSetting</t>
+    <t>RequestSummary</t>
+  </si>
+  <si>
+    <t>ManPowerMonitoring</t>
+  </si>
+  <si>
+    <t>AttendanceSummary</t>
+  </si>
+  <si>
+    <t>Section</t>
   </si>
 </sst>
 </file>
@@ -138,7 +129,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -169,12 +160,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFD878F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -188,7 +173,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -217,7 +202,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -517,7 +501,7 @@
   <sheetData>
     <row r="2" spans="1:7" ht="105" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B2" s="11"/>
       <c r="C2" s="7"/>
@@ -527,7 +511,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B3" s="11"/>
       <c r="C3" s="7"/>
@@ -545,7 +529,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B5" s="11"/>
       <c r="C5" s="7"/>
@@ -560,104 +544,91 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W1"/>
+  <dimension ref="A1:T1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="W1" sqref="W1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.5703125" customWidth="1"/>
-    <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="24.28515625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="22.28515625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="25.28515625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="10.85546875" customWidth="1"/>
-    <col min="23" max="23" width="15.5703125" customWidth="1"/>
+    <col min="2" max="3" width="20.5703125" customWidth="1"/>
+    <col min="4" max="4" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="25.42578125" customWidth="1"/>
+    <col min="19" max="19" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="24.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>4</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="C1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F1" s="2" t="s">
+      <c r="H1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="K1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="P1" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q1" s="4" t="s">
-        <v>18</v>
-      </c>
       <c r="R1" s="4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="S1" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="T1" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="T1" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="U1" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="V1" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="W1" s="14" t="s">
-        <v>26</v>
       </c>
     </row>
   </sheetData>
